--- a/Project4/stats.xlsx
+++ b/Project4/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topge\Documents\CS4641\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E484BB69-B5BD-444A-ADB4-6E9EF7C551C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31EE329-11E5-4283-B0E2-7791CD01115D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2430" windowWidth="22005" windowHeight="15885" xr2:uid="{CC12E835-6DA9-49D8-98AD-C11335DEDF50}"/>
+    <workbookView xWindow="27780" yWindow="1170" windowWidth="22005" windowHeight="15885" xr2:uid="{CC12E835-6DA9-49D8-98AD-C11335DEDF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>PJOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,26 @@
   </si>
   <si>
     <t>Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value Iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy Iteration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,14 +571,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" spc="-100" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Number of Iterations to Converge - Poicy Iteration</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR" spc="-100" baseline="0"/>
+              <a:t>Number of Iterations to Converge - Policy Iteration</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1100" spc="-100" baseline="0">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" spc="-100" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -581,51 +597,19 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Small</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Small</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$27</c:f>
+              <c:f>Sheet1!$B$23:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -634,9 +618,12 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -645,7 +632,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6D0B-444F-878F-8D4B791EF472}"/>
+              <c16:uniqueId val="{00000002-0FBD-4F9B-A451-64B13E629F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -653,15 +640,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Big</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Big</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -677,23 +656,26 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$31:$A$35</c:f>
+              <c:f>Sheet1!$A$32:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -701,23 +683,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$B$35</c:f>
+              <c:f>Sheet1!$B$32:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -726,7 +711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6D0B-444F-878F-8D4B791EF472}"/>
+              <c16:uniqueId val="{00000001-0FBD-4F9B-A451-64B13E629F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -739,11 +724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764631872"/>
-        <c:axId val="764630232"/>
+        <c:axId val="702769224"/>
+        <c:axId val="702769880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764631872"/>
+        <c:axId val="702769224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,7 +790,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764630232"/>
+        <c:crossAx val="702769880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -813,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764630232"/>
+        <c:axId val="702769880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,6 +831,7 @@
                   <a:rPr lang="en-US" altLang="ko-KR"/>
                   <a:t>Iterations</a:t>
                 </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -882,7 +868,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764631872"/>
+        <c:crossAx val="702769224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -911,6 +897,1107 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Time to Convergence</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5729-490D-BCBE-D0F37F06017B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Policy Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5729-490D-BCBE-D0F37F06017B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="781998248"/>
+        <c:axId val="782000872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="781998248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+                  <a:t>PJOG</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782000872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="782000872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="781998248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,7 +2048,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -982,6 +2069,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C667FD-1D0A-4C56-99AF-4F339C168D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1287,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A210DE-C4B8-4656-BECF-59A17034E40E}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1421,15 +2544,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -1437,7 +2560,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -1445,81 +2568,179 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0.1</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>0.2</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>0.3</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>0.4</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>0.5</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>5</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.1</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.2</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.3</v>
+      </c>
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.4</v>
+      </c>
+      <c r="B46">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.5</v>
+      </c>
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project4/stats.xlsx
+++ b/Project4/stats.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topge\Documents\CS4641\Project4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnyi/CS4641/Project4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31EE329-11E5-4283-B0E2-7791CD01115D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFAE89-1D12-0C43-90B8-3DD7967A304F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="1170" windowWidth="22005" windowHeight="15885" xr2:uid="{CC12E835-6DA9-49D8-98AD-C11335DEDF50}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{CC12E835-6DA9-49D8-98AD-C11335DEDF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$43:$A$47</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$42</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$43:$B$47</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$42</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$43:$C$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,14 +88,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -125,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +150,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -425,7 +432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="708865344"/>
@@ -503,7 +510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="708861080"/>
@@ -526,7 +533,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -540,7 +547,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -787,7 +794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702769880"/>
@@ -865,7 +872,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702769224"/>
@@ -888,7 +895,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -902,7 +909,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -965,7 +972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1208,7 +1215,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1246,7 +1253,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="782000872"/>
@@ -1329,7 +1336,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1361,7 +1368,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781998248"/>
@@ -1403,7 +1410,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1433,7 +1440,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2114,7 +2121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2412,13 +2419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A210DE-C4B8-4656-BECF-59A17034E40E}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="136" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2426,7 +2433,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -2442,7 +2449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -2458,7 +2465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -2474,13 +2481,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.4</v>
       </c>
@@ -2520,7 +2527,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -2528,13 +2535,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2550,7 +2557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.3</v>
       </c>
@@ -2574,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.4</v>
       </c>
@@ -2582,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -2590,13 +2597,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.2</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.3</v>
       </c>
@@ -2636,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.4</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -2652,12 +2659,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2678,7 +2685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -2689,7 +2696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.2</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.3</v>
       </c>
@@ -2711,7 +2718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.4</v>
       </c>
@@ -2722,7 +2729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.5</v>
       </c>

--- a/Project4/stats.xlsx
+++ b/Project4/stats.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnyi/CS4641/Project4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topge\Documents\CS4641\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DFAE89-1D12-0C43-90B8-3DD7967A304F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BB44C-2466-4382-BE5A-9100A85063A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{CC12E835-6DA9-49D8-98AD-C11335DEDF50}"/>
+    <workbookView xWindow="15780" yWindow="2010" windowWidth="22005" windowHeight="15885" xr2:uid="{CC12E835-6DA9-49D8-98AD-C11335DEDF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$43:$A$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$42</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$43:$B$47</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$42</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$43:$C$47</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>PJOG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,14 +81,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -132,7 +125,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,7 +143,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -432,7 +425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="708865344"/>
@@ -510,7 +503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="708861080"/>
@@ -533,7 +526,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -547,7 +540,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -794,7 +787,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702769880"/>
@@ -872,7 +865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702769224"/>
@@ -895,7 +888,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -909,7 +902,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -972,7 +965,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1215,7 +1208,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ko-KR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1253,7 +1246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="782000872"/>
@@ -1336,7 +1329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ko-KR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1368,7 +1361,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="781998248"/>
@@ -1410,7 +1403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1440,7 +1433,560 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> to Convergence - Small Maze</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDA9-4B56-8CDE-FADF24813332}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Policy Iteration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$59:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDA9-4B56-8CDE-FADF24813332}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="763041760"/>
+        <c:axId val="763047992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="763041760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+                  <a:t>PJOG</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763047992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763047992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" b="1" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763041760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1491,7 +2037,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2117,11 +3219,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>659046</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>200725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475549</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF165EBC-ABE5-4A0B-A1DA-FC6BE8248DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2417,15 +3555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A210DE-C4B8-4656-BECF-59A17034E40E}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="136" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="136" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +3571,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2441,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -2449,7 +3587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.2</v>
       </c>
@@ -2457,7 +3595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.3</v>
       </c>
@@ -2465,7 +3603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -2473,7 +3611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -2481,13 +3619,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +3633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -2503,7 +3641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -2511,7 +3649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.3</v>
       </c>
@@ -2519,7 +3657,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.4</v>
       </c>
@@ -2527,7 +3665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -2535,13 +3673,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +3687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2557,7 +3695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -2565,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -2573,7 +3711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.3</v>
       </c>
@@ -2581,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.4</v>
       </c>
@@ -2589,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.5</v>
       </c>
@@ -2597,13 +3735,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2619,7 +3757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -2627,7 +3765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.2</v>
       </c>
@@ -2635,7 +3773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.3</v>
       </c>
@@ -2643,7 +3781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.4</v>
       </c>
@@ -2651,7 +3789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -2659,12 +3797,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -2674,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +3823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -2696,7 +3834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.2</v>
       </c>
@@ -2707,7 +3845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.3</v>
       </c>
@@ -2718,7 +3856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.4</v>
       </c>
@@ -2729,7 +3867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.5</v>
       </c>
@@ -2740,8 +3878,90 @@
         <v>37</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.1</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.2</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.3</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.4</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.5</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
